--- a/Data/EC/NIT-9009661736.xlsx
+++ b/Data/EC/NIT-9009661736.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CFFB47D-2E36-4E8E-A13C-0893DE774AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F66D97CA-43DA-47A0-937F-6B7856BD9C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{348E7710-D0C7-4F21-AE60-6FF1D99D8D71}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{869EE7ED-D55A-44BE-BF29-F3F1F38CDADE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="64">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,124 +65,136 @@
     <t>CC</t>
   </si>
   <si>
+    <t>11039606</t>
+  </si>
+  <si>
+    <t>ROBERTO CARLOS MARTINEZ ORTEGA</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1047401690</t>
+  </si>
+  <si>
+    <t>RICHARD ALFONSO AZAN SANCHEZ</t>
+  </si>
+  <si>
     <t>1047418598</t>
   </si>
   <si>
     <t>FANNY PAOLA DE HORTA DE VOZ</t>
   </si>
   <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
     <t>1903</t>
   </si>
   <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
     <t>1080812616</t>
   </si>
   <si>
     <t>JANNER FRANCISCO MARTINEZ ORTEGA</t>
   </si>
   <si>
+    <t>1098615804</t>
+  </si>
+  <si>
+    <t>MANUEL ENRIQUE AHUMEDO DE LA ROSA</t>
+  </si>
+  <si>
+    <t>1143396985</t>
+  </si>
+  <si>
+    <t>DAIRO JOSE MARTINEZ BATISTA</t>
+  </si>
+  <si>
+    <t>73202173</t>
+  </si>
+  <si>
+    <t>JEAN CARLOS OVIEDO VILLADIEGO</t>
+  </si>
+  <si>
+    <t>73353229</t>
+  </si>
+  <si>
+    <t>ANTONIO CARABALLO GOMEZ</t>
+  </si>
+  <si>
+    <t>1004278816</t>
+  </si>
+  <si>
+    <t>MANUEL ENRIQUE OCHOA FLOREZ</t>
+  </si>
+  <si>
     <t>1070810706</t>
   </si>
   <si>
     <t>RICARDO MIGUEL MARTINEZ ORTEGA</t>
-  </si>
-  <si>
-    <t>11039606</t>
-  </si>
-  <si>
-    <t>ROBERTO CARLOS MARTINEZ ORTEGA</t>
-  </si>
-  <si>
-    <t>73353229</t>
-  </si>
-  <si>
-    <t>ANTONIO CARABALLO GOMEZ</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1098615804</t>
-  </si>
-  <si>
-    <t>MANUEL ENRIQUE AHUMEDO DE LA ROSA</t>
-  </si>
-  <si>
-    <t>73202173</t>
-  </si>
-  <si>
-    <t>JEAN CARLOS OVIEDO VILLADIEGO</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1004278816</t>
-  </si>
-  <si>
-    <t>MANUEL ENRIQUE OCHOA FLOREZ</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -226,7 +238,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,7 +608,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14735978-D079-5E45-8757-50655F7010B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD45E114-1B5C-6397-4AB6-53CAF89FA321}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,32 +959,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100F33CE-E790-4A2E-A0E6-A78524F4453C}">
-  <dimension ref="B2:J164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BE484E-BEE9-4EDA-A4FC-7E8A7758D4F8}">
+  <dimension ref="B2:J197"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -981,7 +993,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -992,7 +1004,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1003,7 +1015,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1014,10 +1026,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1030,8 +1042,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1046,15 +1058,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4829377</v>
+        <v>5904836</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1062,17 +1074,17 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F13" s="5">
         <v>24</v>
@@ -1082,7 +1094,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1102,16 +1114,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1125,16 +1137,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>24292</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1148,16 +1160,16 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1171,16 +1183,16 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1194,16 +1206,16 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1217,16 +1229,16 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1240,27 +1252,27 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1272,18 +1284,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1295,18 +1307,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1318,18 +1330,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1341,7 +1353,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1352,30 +1364,30 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G26" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
@@ -1387,18 +1399,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
@@ -1410,18 +1422,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>33125</v>
@@ -1433,7 +1445,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1444,27 +1456,27 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G30" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>26</v>
@@ -1479,18 +1491,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
@@ -1502,18 +1514,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>33125</v>
@@ -1525,18 +1537,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
@@ -1548,99 +1560,99 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F35" s="18">
-        <v>33125</v>
+        <v>24292</v>
       </c>
       <c r="G35" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F36" s="18">
         <v>33125</v>
       </c>
       <c r="G36" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F37" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G37" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F38" s="18">
         <v>33125</v>
       </c>
       <c r="G38" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1651,180 +1663,180 @@
         <v>31</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F39" s="18">
         <v>33125</v>
       </c>
       <c r="G39" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F40" s="18">
         <v>33125</v>
       </c>
       <c r="G40" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F41" s="18">
         <v>33125</v>
       </c>
       <c r="G41" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F42" s="18">
         <v>33125</v>
       </c>
       <c r="G42" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F43" s="18">
         <v>33125</v>
       </c>
       <c r="G43" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F44" s="18">
         <v>33125</v>
       </c>
       <c r="G44" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F45" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G45" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F46" s="18">
         <v>33125</v>
       </c>
       <c r="G46" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1835,122 +1847,122 @@
         <v>31</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F47" s="18">
         <v>33125</v>
       </c>
       <c r="G47" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F48" s="18">
         <v>33125</v>
       </c>
       <c r="G48" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F49" s="18">
         <v>33125</v>
       </c>
       <c r="G49" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F50" s="18">
         <v>33125</v>
       </c>
       <c r="G50" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F51" s="18">
-        <v>33125</v>
+        <v>29333</v>
       </c>
       <c r="G51" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
@@ -1962,133 +1974,133 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F53" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G53" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F54" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G54" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F55" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G55" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F56" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G56" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="E57" s="16" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F57" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G57" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F58" s="18">
         <v>40000</v>
@@ -2100,179 +2112,179 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F59" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G59" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F60" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G60" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F61" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G61" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F62" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G62" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F63" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G63" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F64" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G64" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F65" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G65" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F66" s="18">
         <v>40000</v>
@@ -2284,133 +2296,133 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F67" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G67" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F68" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G68" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="E69" s="16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F69" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G69" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F70" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G70" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F71" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G71" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F72" s="18">
         <v>40000</v>
@@ -2422,67 +2434,67 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="E73" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F73" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G73" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F74" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G74" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F75" s="18">
-        <v>33125</v>
+        <v>24292</v>
       </c>
       <c r="G75" s="18">
         <v>828116</v>
@@ -2491,18 +2503,18 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F76" s="18">
         <v>33125</v>
@@ -2514,18 +2526,18 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F77" s="18">
         <v>33125</v>
@@ -2537,18 +2549,18 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F78" s="18">
         <v>33125</v>
@@ -2560,18 +2572,18 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F79" s="18">
         <v>33125</v>
@@ -2583,18 +2595,18 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F80" s="18">
         <v>33125</v>
@@ -2606,18 +2618,18 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F81" s="18">
         <v>33125</v>
@@ -2629,41 +2641,41 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F82" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G82" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F83" s="18">
         <v>33125</v>
@@ -2675,18 +2687,18 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F84" s="18">
         <v>33125</v>
@@ -2698,18 +2710,18 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F85" s="18">
         <v>33125</v>
@@ -2721,18 +2733,18 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F86" s="18">
         <v>33125</v>
@@ -2744,18 +2756,18 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F87" s="18">
         <v>33125</v>
@@ -2767,18 +2779,18 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D88" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E88" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F88" s="18">
         <v>33125</v>
@@ -2790,18 +2802,18 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F89" s="18">
         <v>33125</v>
@@ -2813,18 +2825,18 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F90" s="18">
         <v>33125</v>
@@ -2836,18 +2848,18 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F91" s="18">
         <v>33125</v>
@@ -2859,41 +2871,41 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F92" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G92" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F93" s="18">
         <v>33125</v>
@@ -2905,21 +2917,21 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F94" s="18">
-        <v>33125</v>
+        <v>24292</v>
       </c>
       <c r="G94" s="18">
         <v>828116</v>
@@ -2928,18 +2940,18 @@
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F95" s="18">
         <v>33125</v>
@@ -2951,18 +2963,18 @@
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F96" s="18">
         <v>33125</v>
@@ -2974,18 +2986,18 @@
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F97" s="18">
         <v>33125</v>
@@ -2997,18 +3009,18 @@
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F98" s="18">
         <v>33125</v>
@@ -3020,18 +3032,18 @@
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F99" s="18">
         <v>33125</v>
@@ -3043,18 +3055,18 @@
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F100" s="18">
         <v>33125</v>
@@ -3066,18 +3078,18 @@
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F101" s="18">
         <v>33125</v>
@@ -3089,41 +3101,41 @@
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F102" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G102" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D103" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E103" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F103" s="18">
         <v>33125</v>
@@ -3135,18 +3147,18 @@
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F104" s="18">
         <v>33125</v>
@@ -3158,18 +3170,18 @@
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F105" s="18">
         <v>33125</v>
@@ -3181,18 +3193,18 @@
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F106" s="18">
         <v>33125</v>
@@ -3204,41 +3216,41 @@
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F107" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G107" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F108" s="18">
         <v>33125</v>
@@ -3250,18 +3262,18 @@
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F109" s="18">
         <v>33125</v>
@@ -3273,21 +3285,21 @@
       <c r="I109" s="19"/>
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F110" s="18">
-        <v>33125</v>
+        <v>24292</v>
       </c>
       <c r="G110" s="18">
         <v>828116</v>
@@ -3296,18 +3308,18 @@
       <c r="I110" s="19"/>
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F111" s="18">
         <v>33125</v>
@@ -3319,18 +3331,18 @@
       <c r="I111" s="19"/>
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F112" s="18">
         <v>33125</v>
@@ -3342,18 +3354,18 @@
       <c r="I112" s="19"/>
       <c r="J112" s="20"/>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F113" s="18">
         <v>33125</v>
@@ -3365,41 +3377,41 @@
       <c r="I113" s="19"/>
       <c r="J113" s="20"/>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F114" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G114" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
       <c r="J114" s="20"/>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="F115" s="18">
         <v>33125</v>
@@ -3411,18 +3423,18 @@
       <c r="I115" s="19"/>
       <c r="J115" s="20"/>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E116" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F116" s="18">
         <v>33125</v>
@@ -3434,18 +3446,18 @@
       <c r="I116" s="19"/>
       <c r="J116" s="20"/>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F117" s="18">
         <v>33125</v>
@@ -3457,18 +3469,18 @@
       <c r="I117" s="19"/>
       <c r="J117" s="20"/>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F118" s="18">
         <v>33125</v>
@@ -3480,18 +3492,18 @@
       <c r="I118" s="19"/>
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F119" s="18">
         <v>33125</v>
@@ -3503,18 +3515,18 @@
       <c r="I119" s="19"/>
       <c r="J119" s="20"/>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F120" s="18">
         <v>33125</v>
@@ -3526,18 +3538,18 @@
       <c r="I120" s="19"/>
       <c r="J120" s="20"/>
     </row>
-    <row r="121" spans="2:10">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F121" s="18">
         <v>33125</v>
@@ -3549,41 +3561,41 @@
       <c r="I121" s="19"/>
       <c r="J121" s="20"/>
     </row>
-    <row r="122" spans="2:10">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F122" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G122" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
       <c r="J122" s="20"/>
     </row>
-    <row r="123" spans="2:10">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F123" s="18">
         <v>33125</v>
@@ -3595,18 +3607,18 @@
       <c r="I123" s="19"/>
       <c r="J123" s="20"/>
     </row>
-    <row r="124" spans="2:10">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F124" s="18">
         <v>33125</v>
@@ -3618,18 +3630,18 @@
       <c r="I124" s="19"/>
       <c r="J124" s="20"/>
     </row>
-    <row r="125" spans="2:10">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F125" s="18">
         <v>33125</v>
@@ -3641,18 +3653,18 @@
       <c r="I125" s="19"/>
       <c r="J125" s="20"/>
     </row>
-    <row r="126" spans="2:10">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F126" s="18">
         <v>33125</v>
@@ -3664,366 +3676,366 @@
       <c r="I126" s="19"/>
       <c r="J126" s="20"/>
     </row>
-    <row r="127" spans="2:10">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F127" s="18">
-        <v>40000</v>
+        <v>24292</v>
       </c>
       <c r="G127" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
       <c r="J127" s="20"/>
     </row>
-    <row r="128" spans="2:10">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F128" s="18">
         <v>33125</v>
       </c>
       <c r="G128" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
       <c r="J128" s="20"/>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F129" s="18">
         <v>33125</v>
       </c>
       <c r="G129" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
       <c r="J129" s="20"/>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F130" s="18">
         <v>33125</v>
       </c>
       <c r="G130" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
       <c r="J130" s="20"/>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F131" s="18">
         <v>33125</v>
       </c>
       <c r="G131" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
       <c r="J131" s="20"/>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F132" s="18">
         <v>33125</v>
       </c>
       <c r="G132" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
       <c r="J132" s="20"/>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F133" s="18">
         <v>33125</v>
       </c>
       <c r="G133" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
       <c r="J133" s="20"/>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F134" s="18">
         <v>33125</v>
       </c>
       <c r="G134" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
       <c r="J134" s="20"/>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F135" s="18">
         <v>33125</v>
       </c>
       <c r="G135" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
       <c r="J135" s="20"/>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D136" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E136" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E136" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="F136" s="18">
         <v>33125</v>
       </c>
       <c r="G136" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
       <c r="J136" s="20"/>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F137" s="18">
         <v>33125</v>
       </c>
       <c r="G137" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
       <c r="J137" s="20"/>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F138" s="18">
         <v>33125</v>
       </c>
       <c r="G138" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
       <c r="J138" s="20"/>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F139" s="18">
         <v>33125</v>
       </c>
       <c r="G139" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
       <c r="J139" s="20"/>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F140" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G140" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
       <c r="J140" s="20"/>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F141" s="18">
         <v>33125</v>
       </c>
       <c r="G141" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
       <c r="J141" s="20"/>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F142" s="18">
-        <v>33125</v>
+        <v>24292</v>
       </c>
       <c r="G142" s="18">
         <v>828116</v>
@@ -4032,18 +4044,18 @@
       <c r="I142" s="19"/>
       <c r="J142" s="20"/>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F143" s="18">
         <v>33125</v>
@@ -4055,18 +4067,18 @@
       <c r="I143" s="19"/>
       <c r="J143" s="20"/>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F144" s="18">
         <v>33125</v>
@@ -4078,18 +4090,18 @@
       <c r="I144" s="19"/>
       <c r="J144" s="20"/>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F145" s="18">
         <v>33125</v>
@@ -4101,18 +4113,18 @@
       <c r="I145" s="19"/>
       <c r="J145" s="20"/>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F146" s="18">
         <v>33125</v>
@@ -4124,41 +4136,41 @@
       <c r="I146" s="19"/>
       <c r="J146" s="20"/>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F147" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G147" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
       <c r="J147" s="20"/>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F148" s="18">
         <v>33125</v>
@@ -4170,18 +4182,18 @@
       <c r="I148" s="19"/>
       <c r="J148" s="20"/>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D149" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E149" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="E149" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="F149" s="18">
         <v>33125</v>
@@ -4193,18 +4205,18 @@
       <c r="I149" s="19"/>
       <c r="J149" s="20"/>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F150" s="18">
         <v>33125</v>
@@ -4216,21 +4228,21 @@
       <c r="I150" s="19"/>
       <c r="J150" s="20"/>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F151" s="18">
-        <v>24292</v>
+        <v>33125</v>
       </c>
       <c r="G151" s="18">
         <v>828116</v>
@@ -4239,21 +4251,21 @@
       <c r="I151" s="19"/>
       <c r="J151" s="20"/>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F152" s="18">
-        <v>24292</v>
+        <v>33125</v>
       </c>
       <c r="G152" s="18">
         <v>828116</v>
@@ -4262,44 +4274,44 @@
       <c r="I152" s="19"/>
       <c r="J152" s="20"/>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B153" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F153" s="18">
-        <v>29333</v>
+        <v>33125</v>
       </c>
       <c r="G153" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
       <c r="J153" s="20"/>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B154" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F154" s="18">
-        <v>24292</v>
+        <v>33125</v>
       </c>
       <c r="G154" s="18">
         <v>828116</v>
@@ -4308,21 +4320,21 @@
       <c r="I154" s="19"/>
       <c r="J154" s="20"/>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B155" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F155" s="18">
-        <v>24292</v>
+        <v>33125</v>
       </c>
       <c r="G155" s="18">
         <v>828116</v>
@@ -4331,21 +4343,21 @@
       <c r="I155" s="19"/>
       <c r="J155" s="20"/>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F156" s="18">
-        <v>24292</v>
+        <v>33125</v>
       </c>
       <c r="G156" s="18">
         <v>828116</v>
@@ -4354,21 +4366,21 @@
       <c r="I156" s="19"/>
       <c r="J156" s="20"/>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B157" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F157" s="18">
-        <v>24292</v>
+        <v>33125</v>
       </c>
       <c r="G157" s="18">
         <v>828116</v>
@@ -4377,57 +4389,816 @@
       <c r="I157" s="19"/>
       <c r="J157" s="20"/>
     </row>
-    <row r="158" spans="2:10">
-      <c r="B158" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="22" t="s">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B158" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D158" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="18">
+        <v>24292</v>
+      </c>
+      <c r="G158" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="20"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B159" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D159" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G159" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H159" s="19"/>
+      <c r="I159" s="19"/>
+      <c r="J159" s="20"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B160" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G160" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H160" s="19"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="20"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B161" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G161" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H161" s="19"/>
+      <c r="I161" s="19"/>
+      <c r="J161" s="20"/>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B162" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D162" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F162" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G162" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H162" s="19"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="20"/>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B163" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F163" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G163" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="20"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B164" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F164" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G164" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H164" s="19"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="20"/>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B165" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E165" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G165" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="20"/>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B166" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E166" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D158" s="23" t="s">
+      <c r="F166" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G166" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="20"/>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B167" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E167" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E158" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F158" s="24">
+      <c r="F167" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G167" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H167" s="19"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="20"/>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B168" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E168" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F168" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G168" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="20"/>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B169" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E169" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F169" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G169" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="20"/>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B170" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E170" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F170" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G170" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H170" s="19"/>
+      <c r="I170" s="19"/>
+      <c r="J170" s="20"/>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B171" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F171" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G171" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="20"/>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B172" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F172" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G172" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H172" s="19"/>
+      <c r="I172" s="19"/>
+      <c r="J172" s="20"/>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B173" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" s="18">
         <v>24292</v>
       </c>
-      <c r="G158" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H158" s="25"/>
-      <c r="I158" s="25"/>
-      <c r="J158" s="26"/>
-    </row>
-    <row r="163" spans="2:10">
-      <c r="B163" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C163" s="32"/>
-      <c r="H163" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-    </row>
-    <row r="164" spans="2:10">
-      <c r="B164" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C164" s="32"/>
-      <c r="H164" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
+      <c r="G173" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H173" s="19"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="20"/>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B174" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G174" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H174" s="19"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="20"/>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B175" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G175" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H175" s="19"/>
+      <c r="I175" s="19"/>
+      <c r="J175" s="20"/>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B176" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G176" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H176" s="19"/>
+      <c r="I176" s="19"/>
+      <c r="J176" s="20"/>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B177" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D177" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F177" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G177" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H177" s="19"/>
+      <c r="I177" s="19"/>
+      <c r="J177" s="20"/>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B178" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E178" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F178" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G178" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H178" s="19"/>
+      <c r="I178" s="19"/>
+      <c r="J178" s="20"/>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B179" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E179" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F179" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G179" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H179" s="19"/>
+      <c r="I179" s="19"/>
+      <c r="J179" s="20"/>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B180" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D180" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E180" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F180" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G180" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H180" s="19"/>
+      <c r="I180" s="19"/>
+      <c r="J180" s="20"/>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B181" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D181" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F181" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G181" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H181" s="19"/>
+      <c r="I181" s="19"/>
+      <c r="J181" s="20"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B182" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E182" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F182" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G182" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H182" s="19"/>
+      <c r="I182" s="19"/>
+      <c r="J182" s="20"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B183" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E183" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F183" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G183" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H183" s="19"/>
+      <c r="I183" s="19"/>
+      <c r="J183" s="20"/>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B184" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D184" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E184" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F184" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G184" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H184" s="19"/>
+      <c r="I184" s="19"/>
+      <c r="J184" s="20"/>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B185" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F185" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G185" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H185" s="19"/>
+      <c r="I185" s="19"/>
+      <c r="J185" s="20"/>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B186" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D186" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E186" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F186" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G186" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H186" s="19"/>
+      <c r="I186" s="19"/>
+      <c r="J186" s="20"/>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B187" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D187" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F187" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G187" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H187" s="19"/>
+      <c r="I187" s="19"/>
+      <c r="J187" s="20"/>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B188" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D188" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F188" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G188" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H188" s="19"/>
+      <c r="I188" s="19"/>
+      <c r="J188" s="20"/>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B189" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D189" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F189" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G189" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H189" s="19"/>
+      <c r="I189" s="19"/>
+      <c r="J189" s="20"/>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B190" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D190" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E190" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F190" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G190" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H190" s="19"/>
+      <c r="I190" s="19"/>
+      <c r="J190" s="20"/>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B191" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D191" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E191" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F191" s="24">
+        <v>33125</v>
+      </c>
+      <c r="G191" s="24">
+        <v>828116</v>
+      </c>
+      <c r="H191" s="25"/>
+      <c r="I191" s="25"/>
+      <c r="J191" s="26"/>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B196" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C196" s="32"/>
+      <c r="H196" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B197" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C197" s="32"/>
+      <c r="H197" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="H164:J164"/>
-    <mergeCell ref="H163:J163"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="H197:J197"/>
+    <mergeCell ref="H196:J196"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9009661736.xlsx
+++ b/Data/EC/NIT-9009661736.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F66D97CA-43DA-47A0-937F-6B7856BD9C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C3308BA-DB63-4C57-A47D-D7ABB3A3359D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{869EE7ED-D55A-44BE-BF29-F3F1F38CDADE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{343C8891-A5B9-4680-AC0C-218C4633CF76}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="60">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,136 +65,124 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047418598</t>
+  </si>
+  <si>
+    <t>FANNY PAOLA DE HORTA DE VOZ</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
     <t>11039606</t>
   </si>
   <si>
     <t>ROBERTO CARLOS MARTINEZ ORTEGA</t>
   </si>
   <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1080812616</t>
+  </si>
+  <si>
+    <t>JANNER FRANCISCO MARTINEZ ORTEGA</t>
+  </si>
+  <si>
+    <t>73353229</t>
+  </si>
+  <si>
+    <t>ANTONIO CARABALLO GOMEZ</t>
+  </si>
+  <si>
+    <t>1070810706</t>
+  </si>
+  <si>
+    <t>RICARDO MIGUEL MARTINEZ ORTEGA</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1098615804</t>
+  </si>
+  <si>
+    <t>MANUEL ENRIQUE AHUMEDO DE LA ROSA</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>73202173</t>
+  </si>
+  <si>
+    <t>JEAN CARLOS OVIEDO VILLADIEGO</t>
+  </si>
+  <si>
+    <t>1004278816</t>
+  </si>
+  <si>
+    <t>MANUEL ENRIQUE OCHOA FLOREZ</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
     <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1047401690</t>
-  </si>
-  <si>
-    <t>RICHARD ALFONSO AZAN SANCHEZ</t>
-  </si>
-  <si>
-    <t>1047418598</t>
-  </si>
-  <si>
-    <t>FANNY PAOLA DE HORTA DE VOZ</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1080812616</t>
-  </si>
-  <si>
-    <t>JANNER FRANCISCO MARTINEZ ORTEGA</t>
-  </si>
-  <si>
-    <t>1098615804</t>
-  </si>
-  <si>
-    <t>MANUEL ENRIQUE AHUMEDO DE LA ROSA</t>
-  </si>
-  <si>
-    <t>1143396985</t>
-  </si>
-  <si>
-    <t>DAIRO JOSE MARTINEZ BATISTA</t>
-  </si>
-  <si>
-    <t>73202173</t>
-  </si>
-  <si>
-    <t>JEAN CARLOS OVIEDO VILLADIEGO</t>
-  </si>
-  <si>
-    <t>73353229</t>
-  </si>
-  <si>
-    <t>ANTONIO CARABALLO GOMEZ</t>
-  </si>
-  <si>
-    <t>1004278816</t>
-  </si>
-  <si>
-    <t>MANUEL ENRIQUE OCHOA FLOREZ</t>
-  </si>
-  <si>
-    <t>1070810706</t>
-  </si>
-  <si>
-    <t>RICARDO MIGUEL MARTINEZ ORTEGA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -238,7 +226,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,7 +281,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -306,9 +296,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -508,23 +496,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,10 +540,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,13 +581,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -608,7 +596,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD45E114-1B5C-6397-4AB6-53CAF89FA321}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AC2274-FE2F-ED20-7397-5FDB2A460C15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -630,7 +618,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -959,32 +947,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BE484E-BEE9-4EDA-A4FC-7E8A7758D4F8}">
-  <dimension ref="B2:J197"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2BCAEE-3DBE-4C4E-8DDC-81174727671E}">
+  <dimension ref="B2:J164"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -993,7 +981,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1004,7 +992,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1015,7 +1003,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1026,10 +1014,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1042,8 +1030,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1058,15 +1046,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>5904836</v>
+        <v>4829377</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1074,17 +1062,17 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F13" s="5">
         <v>24</v>
@@ -1094,7 +1082,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1114,16 +1102,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1137,16 +1125,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24292</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1160,16 +1148,16 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1183,16 +1171,16 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1206,16 +1194,16 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1229,27 +1217,27 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>33125</v>
@@ -1261,7 +1249,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1272,27 +1260,27 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>18</v>
@@ -1307,18 +1295,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1330,18 +1318,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1353,18 +1341,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
@@ -1376,7 +1364,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1387,30 +1375,30 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
@@ -1422,18 +1410,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
         <v>33125</v>
@@ -1445,18 +1433,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
@@ -1468,7 +1456,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1482,27 +1470,27 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
@@ -1514,18 +1502,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18">
         <v>33125</v>
@@ -1537,18 +1525,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
@@ -1560,501 +1548,501 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F35" s="18">
-        <v>24292</v>
+        <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F36" s="18">
         <v>33125</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F37" s="18">
         <v>33125</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F38" s="18">
         <v>33125</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F39" s="18">
         <v>33125</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F40" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G40" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F41" s="18">
         <v>33125</v>
       </c>
       <c r="G41" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F42" s="18">
         <v>33125</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F43" s="18">
         <v>33125</v>
       </c>
       <c r="G43" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F44" s="18">
         <v>33125</v>
       </c>
       <c r="G44" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F45" s="18">
         <v>33125</v>
       </c>
       <c r="G45" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F46" s="18">
         <v>33125</v>
       </c>
       <c r="G46" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F47" s="18">
         <v>33125</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F48" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G48" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F49" s="18">
         <v>33125</v>
       </c>
       <c r="G49" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F50" s="18">
         <v>33125</v>
       </c>
       <c r="G50" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="E51" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F51" s="18">
-        <v>29333</v>
+        <v>33125</v>
       </c>
       <c r="G51" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F52" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G52" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F53" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G53" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F54" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G54" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F55" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G55" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F56" s="18">
         <v>40000</v>
@@ -2066,179 +2054,179 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F57" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G57" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F58" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G58" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="E59" s="16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F59" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G59" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F60" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G60" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F61" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G61" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G62" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F63" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G63" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
         <v>40000</v>
@@ -2250,179 +2238,179 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G65" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F66" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G66" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="E67" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F67" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G67" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F68" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G68" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F69" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G69" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F70" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G70" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F71" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G71" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F72" s="18">
         <v>40000</v>
@@ -2434,67 +2422,67 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F73" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G73" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F74" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G74" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F75" s="18">
-        <v>24292</v>
+        <v>33125</v>
       </c>
       <c r="G75" s="18">
         <v>828116</v>
@@ -2503,18 +2491,18 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F76" s="18">
         <v>33125</v>
@@ -2526,18 +2514,18 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F77" s="18">
         <v>33125</v>
@@ -2549,18 +2537,18 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F78" s="18">
         <v>33125</v>
@@ -2572,18 +2560,18 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F79" s="18">
         <v>33125</v>
@@ -2595,41 +2583,41 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D80" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F80" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G80" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F81" s="18">
         <v>33125</v>
@@ -2641,18 +2629,18 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F82" s="18">
         <v>33125</v>
@@ -2664,18 +2652,18 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F83" s="18">
         <v>33125</v>
@@ -2687,18 +2675,18 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F84" s="18">
         <v>33125</v>
@@ -2710,18 +2698,18 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F85" s="18">
         <v>33125</v>
@@ -2733,18 +2721,18 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F86" s="18">
         <v>33125</v>
@@ -2756,18 +2744,18 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D87" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F87" s="18">
         <v>33125</v>
@@ -2779,41 +2767,41 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E88" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F88" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G88" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D89" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F89" s="18">
         <v>33125</v>
@@ -2825,18 +2813,18 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D90" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F90" s="18">
         <v>33125</v>
@@ -2848,18 +2836,18 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D91" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F91" s="18">
         <v>33125</v>
@@ -2871,18 +2859,18 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D92" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F92" s="18">
         <v>33125</v>
@@ -2894,18 +2882,18 @@
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:10">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D93" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F93" s="18">
         <v>33125</v>
@@ -2917,21 +2905,21 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:10">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F94" s="18">
-        <v>24292</v>
+        <v>33125</v>
       </c>
       <c r="G94" s="18">
         <v>828116</v>
@@ -2940,18 +2928,18 @@
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F95" s="18">
         <v>33125</v>
@@ -2963,41 +2951,41 @@
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:10">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D96" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F96" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G96" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:10">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F97" s="18">
         <v>33125</v>
@@ -3009,18 +2997,18 @@
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:10">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F98" s="18">
         <v>33125</v>
@@ -3032,18 +3020,18 @@
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:10">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E99" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F99" s="18">
         <v>33125</v>
@@ -3055,18 +3043,18 @@
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:10">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F100" s="18">
         <v>33125</v>
@@ -3078,18 +3066,18 @@
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:10">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F101" s="18">
         <v>33125</v>
@@ -3101,18 +3089,18 @@
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:10">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F102" s="18">
         <v>33125</v>
@@ -3124,18 +3112,18 @@
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:10">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D103" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F103" s="18">
         <v>33125</v>
@@ -3147,41 +3135,41 @@
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:10">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E104" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F104" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G104" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:10">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D105" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F105" s="18">
         <v>33125</v>
@@ -3193,18 +3181,18 @@
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:10">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D106" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F106" s="18">
         <v>33125</v>
@@ -3216,18 +3204,18 @@
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:10">
       <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D107" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F107" s="18">
         <v>33125</v>
@@ -3239,18 +3227,18 @@
       <c r="I107" s="19"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:10">
       <c r="B108" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D108" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F108" s="18">
         <v>33125</v>
@@ -3262,18 +3250,18 @@
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:10">
       <c r="B109" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D109" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E109" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F109" s="18">
         <v>33125</v>
@@ -3285,21 +3273,21 @@
       <c r="I109" s="19"/>
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:10">
       <c r="B110" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F110" s="18">
-        <v>24292</v>
+        <v>33125</v>
       </c>
       <c r="G110" s="18">
         <v>828116</v>
@@ -3308,18 +3296,18 @@
       <c r="I110" s="19"/>
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:10">
       <c r="B111" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F111" s="18">
         <v>33125</v>
@@ -3331,41 +3319,41 @@
       <c r="I111" s="19"/>
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:10">
       <c r="B112" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D112" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F112" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G112" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
       <c r="J112" s="20"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10">
       <c r="B113" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F113" s="18">
         <v>33125</v>
@@ -3377,18 +3365,18 @@
       <c r="I113" s="19"/>
       <c r="J113" s="20"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10">
       <c r="B114" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F114" s="18">
         <v>33125</v>
@@ -3400,18 +3388,18 @@
       <c r="I114" s="19"/>
       <c r="J114" s="20"/>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:10">
       <c r="B115" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E115" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F115" s="18">
         <v>33125</v>
@@ -3423,18 +3411,18 @@
       <c r="I115" s="19"/>
       <c r="J115" s="20"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:10">
       <c r="B116" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F116" s="18">
         <v>33125</v>
@@ -3446,18 +3434,18 @@
       <c r="I116" s="19"/>
       <c r="J116" s="20"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:10">
       <c r="B117" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E117" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F117" s="18">
         <v>33125</v>
@@ -3469,18 +3457,18 @@
       <c r="I117" s="19"/>
       <c r="J117" s="20"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:10">
       <c r="B118" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F118" s="18">
         <v>33125</v>
@@ -3492,18 +3480,18 @@
       <c r="I118" s="19"/>
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:10">
       <c r="B119" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D119" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F119" s="18">
         <v>33125</v>
@@ -3515,41 +3503,41 @@
       <c r="I119" s="19"/>
       <c r="J119" s="20"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:10">
       <c r="B120" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E120" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F120" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G120" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
       <c r="J120" s="20"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:10">
       <c r="B121" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D121" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F121" s="18">
         <v>33125</v>
@@ -3561,18 +3549,18 @@
       <c r="I121" s="19"/>
       <c r="J121" s="20"/>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:10">
       <c r="B122" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D122" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F122" s="18">
         <v>33125</v>
@@ -3584,18 +3572,18 @@
       <c r="I122" s="19"/>
       <c r="J122" s="20"/>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:10">
       <c r="B123" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D123" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E123" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F123" s="18">
         <v>33125</v>
@@ -3607,18 +3595,18 @@
       <c r="I123" s="19"/>
       <c r="J123" s="20"/>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:10">
       <c r="B124" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D124" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F124" s="18">
         <v>33125</v>
@@ -3630,18 +3618,18 @@
       <c r="I124" s="19"/>
       <c r="J124" s="20"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:10">
       <c r="B125" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D125" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F125" s="18">
         <v>33125</v>
@@ -3653,18 +3641,18 @@
       <c r="I125" s="19"/>
       <c r="J125" s="20"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:10">
       <c r="B126" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D126" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F126" s="18">
         <v>33125</v>
@@ -3676,366 +3664,366 @@
       <c r="I126" s="19"/>
       <c r="J126" s="20"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:10">
       <c r="B127" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D127" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F127" s="18">
-        <v>24292</v>
+        <v>33125</v>
       </c>
       <c r="G127" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
       <c r="J127" s="20"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:10">
       <c r="B128" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D128" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F128" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G128" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
       <c r="J128" s="20"/>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:10">
       <c r="B129" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D129" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F129" s="18">
         <v>33125</v>
       </c>
       <c r="G129" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
       <c r="J129" s="20"/>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:10">
       <c r="B130" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E130" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D130" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F130" s="18">
         <v>33125</v>
       </c>
       <c r="G130" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
       <c r="J130" s="20"/>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:10">
       <c r="B131" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E131" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D131" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F131" s="18">
         <v>33125</v>
       </c>
       <c r="G131" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
       <c r="J131" s="20"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:10">
       <c r="B132" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D132" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F132" s="18">
         <v>33125</v>
       </c>
       <c r="G132" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
       <c r="J132" s="20"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:10">
       <c r="B133" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E133" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D133" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F133" s="18">
         <v>33125</v>
       </c>
       <c r="G133" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
       <c r="J133" s="20"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:10">
       <c r="B134" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D134" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F134" s="18">
         <v>33125</v>
       </c>
       <c r="G134" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
       <c r="J134" s="20"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:10">
       <c r="B135" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D135" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E135" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F135" s="18">
         <v>33125</v>
       </c>
       <c r="G135" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
       <c r="J135" s="20"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:10">
       <c r="B136" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E136" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F136" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G136" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
       <c r="J136" s="20"/>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:10">
       <c r="B137" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D137" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E137" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F137" s="18">
         <v>33125</v>
       </c>
       <c r="G137" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
       <c r="J137" s="20"/>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:10">
       <c r="B138" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D138" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E138" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E138" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F138" s="18">
         <v>33125</v>
       </c>
       <c r="G138" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
       <c r="J138" s="20"/>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:10">
       <c r="B139" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D139" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E139" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E139" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F139" s="18">
         <v>33125</v>
       </c>
       <c r="G139" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
       <c r="J139" s="20"/>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:10">
       <c r="B140" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D140" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E140" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F140" s="18">
         <v>33125</v>
       </c>
       <c r="G140" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
       <c r="J140" s="20"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:10">
       <c r="B141" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D141" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E141" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E141" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F141" s="18">
         <v>33125</v>
       </c>
       <c r="G141" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
       <c r="J141" s="20"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:10">
       <c r="B142" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F142" s="18">
-        <v>24292</v>
+        <v>33125</v>
       </c>
       <c r="G142" s="18">
         <v>828116</v>
@@ -4044,18 +4032,18 @@
       <c r="I142" s="19"/>
       <c r="J142" s="20"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:10">
       <c r="B143" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F143" s="18">
         <v>33125</v>
@@ -4067,41 +4055,41 @@
       <c r="I143" s="19"/>
       <c r="J143" s="20"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:10">
       <c r="B144" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D144" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F144" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G144" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
       <c r="J144" s="20"/>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:10">
       <c r="B145" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E145" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F145" s="18">
         <v>33125</v>
@@ -4113,18 +4101,18 @@
       <c r="I145" s="19"/>
       <c r="J145" s="20"/>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:10">
       <c r="B146" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E146" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F146" s="18">
         <v>33125</v>
@@ -4136,18 +4124,18 @@
       <c r="I146" s="19"/>
       <c r="J146" s="20"/>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:10">
       <c r="B147" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E147" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F147" s="18">
         <v>33125</v>
@@ -4159,18 +4147,18 @@
       <c r="I147" s="19"/>
       <c r="J147" s="20"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:10">
       <c r="B148" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E148" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F148" s="18">
         <v>33125</v>
@@ -4182,18 +4170,18 @@
       <c r="I148" s="19"/>
       <c r="J148" s="20"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:10">
       <c r="B149" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E149" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E149" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F149" s="18">
         <v>33125</v>
@@ -4205,18 +4193,18 @@
       <c r="I149" s="19"/>
       <c r="J149" s="20"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:10">
       <c r="B150" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E150" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F150" s="18">
         <v>33125</v>
@@ -4228,21 +4216,21 @@
       <c r="I150" s="19"/>
       <c r="J150" s="20"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:10">
       <c r="B151" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D151" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E151" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F151" s="18">
-        <v>33125</v>
+        <v>24292</v>
       </c>
       <c r="G151" s="18">
         <v>828116</v>
@@ -4251,44 +4239,44 @@
       <c r="I151" s="19"/>
       <c r="J151" s="20"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:10">
       <c r="B152" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D152" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E152" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F152" s="18">
-        <v>33125</v>
+        <v>29333</v>
       </c>
       <c r="G152" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
       <c r="J152" s="20"/>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:10">
       <c r="B153" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D153" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E153" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E153" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F153" s="18">
-        <v>33125</v>
+        <v>24292</v>
       </c>
       <c r="G153" s="18">
         <v>828116</v>
@@ -4297,21 +4285,21 @@
       <c r="I153" s="19"/>
       <c r="J153" s="20"/>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:10">
       <c r="B154" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D154" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E154" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E154" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F154" s="18">
-        <v>33125</v>
+        <v>24292</v>
       </c>
       <c r="G154" s="18">
         <v>828116</v>
@@ -4320,21 +4308,21 @@
       <c r="I154" s="19"/>
       <c r="J154" s="20"/>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:10">
       <c r="B155" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D155" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E155" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E155" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F155" s="18">
-        <v>33125</v>
+        <v>24292</v>
       </c>
       <c r="G155" s="18">
         <v>828116</v>
@@ -4343,21 +4331,21 @@
       <c r="I155" s="19"/>
       <c r="J155" s="20"/>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:10">
       <c r="B156" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D156" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E156" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E156" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F156" s="18">
-        <v>33125</v>
+        <v>24292</v>
       </c>
       <c r="G156" s="18">
         <v>828116</v>
@@ -4366,21 +4354,21 @@
       <c r="I156" s="19"/>
       <c r="J156" s="20"/>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:10">
       <c r="B157" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D157" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E157" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E157" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F157" s="18">
-        <v>33125</v>
+        <v>24292</v>
       </c>
       <c r="G157" s="18">
         <v>828116</v>
@@ -4389,816 +4377,57 @@
       <c r="I157" s="19"/>
       <c r="J157" s="20"/>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B158" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D158" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E158" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="18">
+    <row r="158" spans="2:10">
+      <c r="B158" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D158" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E158" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F158" s="24">
         <v>24292</v>
       </c>
-      <c r="G158" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B159" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D159" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E159" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F159" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G159" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B160" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D160" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E160" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F160" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G160" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B161" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D161" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E161" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F161" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G161" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="20"/>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B162" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D162" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E162" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F162" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G162" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B163" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D163" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E163" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F163" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G163" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="20"/>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B164" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E164" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F164" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G164" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="20"/>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B165" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E165" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F165" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G165" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="20"/>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B166" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E166" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F166" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G166" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="20"/>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B167" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D167" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E167" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F167" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G167" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="20"/>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B168" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E168" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F168" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G168" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="20"/>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B169" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E169" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F169" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G169" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="20"/>
-    </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B170" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D170" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E170" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F170" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G170" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="20"/>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B171" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D171" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E171" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F171" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G171" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="20"/>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B172" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D172" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E172" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F172" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G172" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="20"/>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B173" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D173" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E173" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F173" s="18">
-        <v>24292</v>
-      </c>
-      <c r="G173" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="20"/>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B174" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D174" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E174" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F174" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G174" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="20"/>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B175" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D175" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E175" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F175" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G175" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="20"/>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B176" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D176" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E176" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F176" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G176" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="20"/>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B177" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D177" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E177" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F177" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G177" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="20"/>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B178" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D178" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E178" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F178" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G178" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="20"/>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B179" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D179" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F179" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G179" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="20"/>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B180" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D180" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F180" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G180" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="20"/>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B181" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D181" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E181" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F181" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G181" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="20"/>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B182" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C182" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D182" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E182" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F182" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G182" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="20"/>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B183" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C183" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D183" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E183" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F183" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G183" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="20"/>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B184" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D184" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E184" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F184" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G184" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="20"/>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B185" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D185" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E185" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F185" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G185" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="20"/>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B186" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C186" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D186" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E186" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F186" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G186" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="20"/>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B187" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C187" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D187" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E187" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F187" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G187" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="20"/>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B188" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C188" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D188" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F188" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G188" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="20"/>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B189" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C189" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D189" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E189" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F189" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G189" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="20"/>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B190" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D190" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E190" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F190" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G190" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="20"/>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B191" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C191" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D191" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E191" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F191" s="24">
-        <v>33125</v>
-      </c>
-      <c r="G191" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H191" s="25"/>
-      <c r="I191" s="25"/>
-      <c r="J191" s="26"/>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B196" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C196" s="32"/>
-      <c r="H196" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I196" s="1"/>
-      <c r="J196" s="1"/>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B197" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C197" s="32"/>
-      <c r="H197" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
+      <c r="G158" s="24">
+        <v>828116</v>
+      </c>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
+      <c r="J158" s="26"/>
+    </row>
+    <row r="163" spans="2:10">
+      <c r="B163" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C163" s="32"/>
+      <c r="H163" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+    </row>
+    <row r="164" spans="2:10">
+      <c r="B164" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C164" s="32"/>
+      <c r="H164" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="H197:J197"/>
-    <mergeCell ref="H196:J196"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="H164:J164"/>
+    <mergeCell ref="H163:J163"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
